--- a/xlsx/峡谷_intext.xlsx
+++ b/xlsx/峡谷_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%BD%E8%B0%B7%E7%9C%81</t>
   </si>
   <si>
-    <t>峽谷省</t>
+    <t>峡谷省</t>
   </si>
   <si>
     <t>政策_政策_加州_峡谷</t>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%B3%BD%E8%B0%B7</t>
   </si>
   <si>
-    <t>科羅拉多大峽谷</t>
+    <t>科罗拉多大峡谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%AD%E5%A3%81</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E7%B3%BB</t>
   </si>
   <si>
-    <t>太陽系</t>
+    <t>太阳系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%89%8B%E8%99%9F%E5%B3%BD%E8%B0%B7</t>
   </si>
   <si>
-    <t>水手號峽谷</t>
+    <t>水手号峡谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%9A%86%E5%B8%82</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9A%96%E6%9D%B1%E5%B3%BD%E8%B0%B7</t>
   </si>
   <si>
-    <t>暖東峽谷</t>
+    <t>暖东峡谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E5%B8%82</t>
@@ -125,37 +125,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E4%BE%86%E5%8D%80</t>
   </si>
   <si>
-    <t>烏來區</t>
+    <t>乌来区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%95%B7%E5%9D%91%E6%BA%AA</t>
   </si>
   <si>
-    <t>保長坑溪</t>
+    <t>保长坑溪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%90%E6%AD%A2%E5%8D%80</t>
   </si>
   <si>
-    <t>汐止區</t>
+    <t>汐止区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%AB%B9%E7%B8%A3</t>
   </si>
   <si>
-    <t>新竹縣</t>
+    <t>新竹县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E9%A6%AC%E5%BA%AB%E6%96%AF</t>
   </si>
   <si>
-    <t>司馬庫斯</t>
+    <t>司马库斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%96%E7%9F%B3%E9%84%89</t>
   </si>
   <si>
-    <t>尖石鄉</t>
+    <t>尖石乡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%85%8B%E9%87%91%E6%BA%AA</t>
@@ -173,25 +173,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%93%E8%98%AD%E9%8E%AE</t>
   </si>
   <si>
-    <t>卓蘭鎮</t>
+    <t>卓兰镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E4%B8%AD%E5%B8%82</t>
   </si>
   <si>
-    <t>臺中市</t>
+    <t>台中市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%97%E6%A0%97%E7%B8%A3</t>
   </si>
   <si>
-    <t>苗栗縣</t>
+    <t>苗栗县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AE%89%E6%BA%AA%E5%A4%A7%E5%B3%BD%E8%B0%B7</t>
   </si>
   <si>
-    <t>大安溪大峽谷</t>
+    <t>大安溪大峡谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%94%B2%E6%BA%AA</t>
@@ -203,25 +203,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E5%8D%80_(%E8%87%BA%E4%B8%AD%E5%B8%82)</t>
   </si>
   <si>
-    <t>和平區 (臺中市)</t>
+    <t>和平区 (台中市)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%8A%95%E7%B8%A3</t>
   </si>
   <si>
-    <t>南投縣</t>
+    <t>南投县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E6%A5%B5%E5%B3%BD%E8%B0%B7</t>
   </si>
   <si>
-    <t>太極峽谷</t>
+    <t>太极峡谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B9%E5%B1%B1%E9%8E%AE_(%E5%8F%B0%E7%81%A3)</t>
   </si>
   <si>
-    <t>竹山鎮 (台灣)</t>
+    <t>竹山镇 (台湾)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%B5%B0%E5%AF%AE%E6%BA%AA</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E6%84%9B%E9%84%89</t>
   </si>
   <si>
-    <t>仁愛鄉</t>
+    <t>仁爱乡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E6%9E%97%E7%B8%A3</t>
   </si>
   <si>
-    <t>雲林縣</t>
+    <t>云林县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%97%E5%85%AD%E5%B8%82</t>
@@ -251,67 +251,67 @@
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E7%BE%A9%E7%B8%A3</t>
   </si>
   <si>
-    <t>嘉義縣</t>
+    <t>嘉义县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%8F%E6%9D%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>屏東縣</t>
+    <t>屏东县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%86%E7%BE%A9%E9%84%89</t>
   </si>
   <si>
-    <t>來義鄉</t>
+    <t>来义乡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A1%E4%B8%B9%E9%84%89</t>
   </si>
   <si>
-    <t>牡丹鄉</t>
+    <t>牡丹乡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E9%96%80%E5%8F%A4%E6%88%B0%E5%A0%B4</t>
   </si>
   <si>
-    <t>石門古戰場</t>
+    <t>石门古战场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9C%E8%98%AD%E7%B8%A3</t>
   </si>
   <si>
-    <t>宜蘭縣</t>
+    <t>宜兰县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%90%8C%E9%84%89_(%E8%87%BA%E7%81%A3)</t>
   </si>
   <si>
-    <t>大同鄉 (臺灣)</t>
+    <t>大同乡 (台湾)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%B0%B4%E5%9C%B0%E7%86%B1</t>
   </si>
   <si>
-    <t>清水地熱</t>
+    <t>清水地热</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E8%93%AE%E7%B8%A3</t>
   </si>
   <si>
-    <t>花蓮縣</t>
+    <t>花莲县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%AD%AF%E9%96%A3</t>
   </si>
   <si>
-    <t>太魯閣</t>
+    <t>太鲁阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%A9%AB%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>中橫公路</t>
+    <t>中横公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%90%86%E7%9F%B3</t>
@@ -323,37 +323,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%80%E5%A7%91%E5%B7%92%E6%BA%AA</t>
   </si>
   <si>
-    <t>秀姑巒溪</t>
+    <t>秀姑峦溪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E6%A8%82%E6%BA%AA</t>
   </si>
   <si>
-    <t>樂樂溪</t>
+    <t>乐乐溪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%9D%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>台東縣</t>
+    <t>台东县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%AD%A6%E5%91%82%E6%BA%AA</t>
   </si>
   <si>
-    <t>新武呂溪</t>
+    <t>新武吕溪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A9%AB%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>南橫公路</t>
+    <t>南横公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>西北地區</t>
+    <t>西北地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%95%E8%A5%BF</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%8C%97%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>華北地區</t>
+    <t>华北地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%92%99%E5%8F%A4</t>
   </si>
   <si>
-    <t>內蒙古</t>
+    <t>内蒙古</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%A5%BF</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E6%9D%B1%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>華東地區</t>
+    <t>华东地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E8%A5%BF</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%97%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>中南地區</t>
+    <t>中南地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E6%B1%9F%E4%B8%89%E5%B3%A1</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%81%E5%BD%8E%E5%8F%96%E7%9B%B4</t>
   </si>
   <si>
-    <t>裁彎取直</t>
+    <t>裁弯取直</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%85%E6%BB%A9</t>
@@ -725,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E8%BB%9B%E6%B9%96</t>
   </si>
   <si>
-    <t>牛軛湖</t>
+    <t>牛轭湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E6%BB%A5%E5%B9%B3%E5%8E%9F</t>
@@ -737,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B2%E6%B5%81%E5%88%87%E6%96%B7</t>
   </si>
   <si>
-    <t>曲流切斷</t>
+    <t>曲流切断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E4%B8%98</t>
@@ -773,13 +773,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%85%8B%E7%B4%8D%E6%96%B9%E7%A8%8B</t>
   </si>
   <si>
-    <t>艾克納方程</t>
+    <t>艾克纳方程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
